--- a/biology/Médecine/Georges_Dumas/Georges_Dumas.xlsx
+++ b/biology/Médecine/Georges_Dumas/Georges_Dumas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges-Alphonse Dumas, né le 6 mars 1866 à Lédignan (Gard) et mort le 12 février 1946 sur la même commune, est un médecin et psychologue français.
 Georges Dumas se présentait comme le disciple fidèle de Théodule Ribot auquel il dédie tous ses livres. Il est un « passeur d’une nouvelle génération de psychologues de l’entre-deux-guerres ». Son domaine de prédilection est celui des émotions.
@@ -515,16 +527,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georges-Alphonse Dumas est né dans une famille de médecins et protestants cévenols[1],[2]. Entre 1878 et 1884, il est élève au lycée de Nîmes, puis élève en classe préparatoire au lycée Louis-le-Grand à Paris entre 1884 et 1886. Il intègre ensuite l’École normale supérieure au sein de la promotion 1886-1889 à côté de Romain Rolland et de Georges Pagès. Il obtient l'agrégation de philosophie en 1889. Entre 1889 et 1896, il suit l'enseignement de Théodule Ribot au Collège de France. Il devient docteur en médecine en 1894 avec une thèse sur Les États intellectuels de la Mélancolie. À l’École de médecine, il se lie d’amitié avec Pierre Janet qu’il a connu comme professeur à l’École normale.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges-Alphonse Dumas est né dans une famille de médecins et protestants cévenols,. Entre 1878 et 1884, il est élève au lycée de Nîmes, puis élève en classe préparatoire au lycée Louis-le-Grand à Paris entre 1884 et 1886. Il intègre ensuite l’École normale supérieure au sein de la promotion 1886-1889 à côté de Romain Rolland et de Georges Pagès. Il obtient l'agrégation de philosophie en 1889. Entre 1889 et 1896, il suit l'enseignement de Théodule Ribot au Collège de France. Il devient docteur en médecine en 1894 avec une thèse sur Les États intellectuels de la Mélancolie. À l’École de médecine, il se lie d’amitié avec Pierre Janet qu’il a connu comme professeur à l’École normale.
 Il occupe la position de chef du laboratoire de psychologie à la clinique des maladies mentales de la Faculté de Médecine de Paris à l’asile Sainte-Anne à partir 1897, parallèlement à son poste de professeur de philosophie au collège Chaptal entre 1894 et 1902.
-Il devient également docteur-ès-lettres en 1900[3] avec une thèse principale, en français, sur la tristesse et la joie ; et une thèse complémentaire, en latin, sur Auguste Comte, critique de la psychologie de son temps. En 1902, succédant à Pierre Janet, il est nommé chargé de cours de psychologie expérimentale à la Faculté des lettres de Paris.
-L'année suivante, en 1903, il fonde avec Pierre Janet le Journal de psychologie normale et pathologique[4]. Entre 1912 et 1937, il est titulaire de la chaire de psychologie expérimentale à la Sorbonne[5].
+Il devient également docteur-ès-lettres en 1900 avec une thèse principale, en français, sur la tristesse et la joie ; et une thèse complémentaire, en latin, sur Auguste Comte, critique de la psychologie de son temps. En 1902, succédant à Pierre Janet, il est nommé chargé de cours de psychologie expérimentale à la Faculté des lettres de Paris.
+L'année suivante, en 1903, il fonde avec Pierre Janet le Journal de psychologie normale et pathologique. Entre 1912 et 1937, il est titulaire de la chaire de psychologie expérimentale à la Sorbonne.
 Durant la Première Guerre mondiale, Georges Dumas est engagé volontaire le 2 août 1914 en tant que médecin aide-major de 2e classe. En 1914 et 1915, il organise et dirige les centres neuro-psychiatriques de Toul et Verdun dans la 1re armée, puis est nommé Aide-major de 1re classe l'année suivante. En 1917, Georges Dumas est médecin en chef du centre neuro-psychiatrique de Noyon dans la 3e armée, jusqu'au mois de juillet, où il est envoyé au Brésil par les Ministres de la Guerre et des Affaires étrangères. De retour en France l'année suivante, Georges Dumas officie au centre neuro-psychiatrique d'Issy-les-Moulineaux en tant que médecin en chef (mars 1918), puis médecin-Major de 2e classe (avril 1918). Au mois de septembre de la même année, Georges Dumas est attaché comme officier de liaison avec le grade de colonel, à la Mission médicale brésilienne, puis responsable du service neuro-psychiatrique à l'Hôpital brésilien fondé par cette mission. En janvier 1919, il démobilisé à sa demande.
-Entre 1920 et 1937, Georges Dumas est professeur de psychologie pathologique à l’Institut de psychologie de l’Université de Paris[4].
+Entre 1920 et 1937, Georges Dumas est professeur de psychologie pathologique à l’Institut de psychologie de l’Université de Paris.
 Il est membre de la Société médico-psychologique depuis 1925 et en est le président pour l'année 1933. Il est également membre de l’Académie de médecine depuis 1926 et membre de l’Académie des sciences morales et politiques depuis 1932. Il est nommé chevalier de la Légion d'honneur en 1917 puis officier et commandeur par la suite.
-Il meurt d’une broncho-pneumonie le 12 février 1946 dans sa ville natale de Lédignan[6].
+Il meurt d’une broncho-pneumonie le 12 février 1946 dans sa ville natale de Lédignan.
 </t>
         </is>
       </c>
@@ -555,8 +569,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Principaux ouvrages
-Léon Tolstoï et la philosophie de l’amour. Hachette, 1893.
+          <t>Principaux ouvrages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Léon Tolstoï et la philosophie de l’amour. Hachette, 1893.
 Les États intellectuels dans la mélancolie. Alcan, 1894.
 Traduction avec préface de « Les Émotions » par Lange. Alcan, 1896.
 La Tristesse et la Joie. Thèse de doctorat ès lettres. Alcan, 1900.
@@ -569,8 +588,43 @@
 Introduction à la psychologie. Son objet - Ses méthodes. Nouveau Traité de Psychologie. Tome I - Fascicule 4. Librairie Félix Alcan, 1936.
 Les Fonctions systématisées de la vie affective et de la vie active. Alcan 1939 Paris, 1939.
 Le Surnaturel et les Dieux d'après les Maladies Mentales. Essai de théogénie pathologique. P.U.F 1946.
-La Vie affective, Physiologie - Psychologie - Socialisation. 1948. P.U.F.
-Principaux articles de revues
+La Vie affective, Physiologie - Psychologie - Socialisation. 1948. P.U.F.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Georges_Dumas</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Dumas</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Éléments bibliographiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Principaux articles de revues</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Revue des Deux Mondes :
 1906 : « Comment aiment les mystiques chrétiens ».
 1910 : « La stigmatisation chez les mystiques chrétiens ».
@@ -627,36 +681,73 @@
 1932 : « Les mimiques motrices et sécrétoires ».
 L'Encéphale :
 1933 : « L’expression de la peur ».
-Autres
-1917 : « Les confusions mentales d’origine commotionnelle chez les blessés » (Rapport sur une mission dans la Somme). Archives de médecine et de pharmacie militaires, p. 69-77. Dumas et Delmas.</t>
+</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Georges_Dumas</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Georges_Dumas</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Éléments bibliographiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1917 : « Les confusions mentales d’origine commotionnelle chez les blessés » (Rapport sur une mission dans la Somme). Archives de médecine et de pharmacie militaires, p. 69-77. Dumas et Delmas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Georges_Dumas</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Georges_Dumas</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Le Traité de psychologie (1923-1924)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le projet de ce traité date d’avant la Première Guerre mondiale. Théodule Ribot en écrit la préface en 1914 mais la guerre en retarde la réalisation. Le Traité de psychologie est le premier traité de psychologie en langue française et le premier ouvrage collectif du genre au niveau mondial.
 Volume I (1923) : Introduction La psychologie, ses divers objets et ses méthodes (André Lalande)
@@ -708,31 +799,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Georges_Dumas</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Georges_Dumas</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Le Nouveau Traité de psychologie (1930-1949)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La première édition du Traité est rapidement épuisée. Suit le projet d’une deuxième édition revue et augmentée de plus de 3 500 pages.
 Tome I (1930)
@@ -805,36 +898,38 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Georges_Dumas</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Georges_Dumas</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Missions et Fondations en Amérique du Sud</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">(Source : Georges Dumas 1866-1946. Société scientifique et littéraire d’Alès)
 1908 : Mission du Gouvernement brésilien. Conférences de psychologie au Brésil en août, septembre et octobre et organisations de laboratoire.
 1912 : Même mission du Gouvernement brésilien an août, septembre et octobre.
-1915 : L'établissement scolaire français (de 1er et 2e cycle) est créé à Rio de Janeiro sous le nom de « Lycée Français ». Il ouvre ses portes le 1er février 1916[7],[8]. En 1982, il est renommé sous le nom de « Lycée Molière »[7].
+1915 : L'établissement scolaire français (de 1er et 2e cycle) est créé à Rio de Janeiro sous le nom de « Lycée Français ». Il ouvre ses portes le 1er février 1916,. En 1982, il est renommé sous le nom de « Lycée Molière ».
 1917 : Mission au Brésil de juillet 1917 à février 1918.
 1920 : Mission du Ministère des Affaires étrangères en août, septembre et octobre au Brésil et en Argentine, pour faire des cours de psychologies dans les Universités et organiser des échanges de professeurs et d’étudiants.
 1921 : Mission du Ministère des Affaires étrangères en Argentine et au Chili (août, septembre et octobre) pour faire des conférences de psychologie normale et pathologique dans les Facultés de Médecine et des Lettres. Fondation de l’Institut de l’Université de Paris à Buenos-Aires et de l’Institut franco-chilien de Haute-Culture.
@@ -853,35 +948,37 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Georges_Dumas</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Georges_Dumas</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sans confondre avec son homonyme Dumas de la résistance à Limoges (Haute-Vienne)[9],[10].
-La municipalité de la commune gardoise de Lédignan nomme une rue en son honneur[11],[12].
-Au Québec, la ville de Gatineau lui rend hommage le 2 août 1991 en nommant une rue Georges-Dumas[13].</t>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sans confondre avec son homonyme Dumas de la résistance à Limoges (Haute-Vienne),.
+La municipalité de la commune gardoise de Lédignan nomme une rue en son honneur,.
+Au Québec, la ville de Gatineau lui rend hommage le 2 août 1991 en nommant une rue Georges-Dumas.</t>
         </is>
       </c>
     </row>
